--- a/biology/Zoologie/Cyanophrys_herodotus/Cyanophrys_herodotus.xlsx
+++ b/biology/Zoologie/Cyanophrys_herodotus/Cyanophrys_herodotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanophrys herodotus est une espèce d'insectes lépidoptères de la famille des Lycaenidae, de la sous-famille des Theclinae, du genre Cyanophrys.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanophrys herodotus a été décrit par Johan Christian Fabricius en 1793 sous le nom initial de Hesperia herodotus;
-Synonyhes : Thecla leucania Hewitson, 1868 ; Thecla sicrana Jones, 1912 ; Thecla detesta Clench, 1946 ; Cyanophrys circumcyanophrys d'Abrera, 1995 (panama) ; Cyanophrys amyntoides d'Abrera, 1995 (Pérou) ; Cyanophrys sicranoides d'Abrera, 1995 (Bolivie) ; Callophrys brazilensis d'Abrera, 1995 (Brésil) ; Cyanophrys amyntoides Johnson &amp; Le Crom, 1997 ; Cyanophrys distractus howei Johnson &amp; Le Crom, 1997 ; Cyanophrys pseudocallophria Johnson &amp; Le Crom, 1997 ; Cyanophrys descimoni Johnson &amp; Le Crom, 1997 ; Cyanophrys gigantus Johnson &amp; Le Crom, 1997 ; Cyanophrys rachelae Johnson &amp; Le Crom, 1997; Plesiocyanophrys ricardo Johnson &amp; Kruse, 1997 ; Plesiocyanophrys brazilensis Johnson &amp; Kruse, 1997 ; Cyanophrys sullivani Johnson &amp; Kruse, 1997[1].
-Nom vernaculaire
-Cyanophrys herodotus se nomme Tropical Greenstreak en anglais[2].
+Synonyhes : Thecla leucania Hewitson, 1868 ; Thecla sicrana Jones, 1912 ; Thecla detesta Clench, 1946 ; Cyanophrys circumcyanophrys d'Abrera, 1995 (panama) ; Cyanophrys amyntoides d'Abrera, 1995 (Pérou) ; Cyanophrys sicranoides d'Abrera, 1995 (Bolivie) ; Callophrys brazilensis d'Abrera, 1995 (Brésil) ; Cyanophrys amyntoides Johnson &amp; Le Crom, 1997 ; Cyanophrys distractus howei Johnson &amp; Le Crom, 1997 ; Cyanophrys pseudocallophria Johnson &amp; Le Crom, 1997 ; Cyanophrys descimoni Johnson &amp; Le Crom, 1997 ; Cyanophrys gigantus Johnson &amp; Le Crom, 1997 ; Cyanophrys rachelae Johnson &amp; Le Crom, 1997; Plesiocyanophrys ricardo Johnson &amp; Kruse, 1997 ; Plesiocyanophrys brazilensis Johnson &amp; Kruse, 1997 ; Cyanophrys sullivani Johnson &amp; Kruse, 1997.
 </t>
         </is>
       </c>
@@ -542,14 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cyanophrys herodotus est un très petit papillon d'une envergure de 22 mm à 29 mm aux antennes et aux ailes annelées de noir et de blanc, avec une fine queue à chaque aile postérieure[3].
-Le dessus est bleu est marron largement suffusé de bleu clair métallisé.
-Le revers est vert clair avec un ocelle anal marron.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyanophrys herodotus se nomme Tropical Greenstreak en anglais.
 </t>
         </is>
       </c>
@@ -575,14 +591,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyanophrys herodotus vole toute l'année au Mexique et en Amérique centrale, de mai à octobre dans le Sud du Texas[3].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Verbenaceae, Cornutia grandifolia, Lantana camara et  Clerodendron paniculatum, des Anacardiaceae Lithraea brasiliensis, Mangifera indica et Schinus molle, des Mikania (Asteraceae dont Mikania scandens[2]).
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyanophrys herodotus est un très petit papillon d'une envergure de 22 mm à 29 mm aux antennes et aux ailes annelées de noir et de blanc, avec une fine queue à chaque aile postérieure.
+Le dessus est bleu est marron largement suffusé de bleu clair métallisé.
+Le revers est vert clair avec un ocelle anal marron.
 </t>
         </is>
       </c>
@@ -608,16 +626,158 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyanophrys herodotus vole toute l'année au Mexique et en Amérique centrale, de mai à octobre dans le Sud du Texas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cyanophrys_herodotus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyanophrys_herodotus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Verbenaceae, Cornutia grandifolia, Lantana camara et  Clerodendron paniculatum, des Anacardiaceae Lithraea brasiliensis, Mangifera indica et Schinus molle, des Mikania (Asteraceae dont Mikania scandens).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cyanophrys_herodotus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyanophrys_herodotus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyanophrys herodotus est présent dans le Sud du Texas, au Mexique, au Guatemala, au Panama, au Nicaragua, en Colombie, en Équateur, au Pérou, au Paraguay, en Argentine, au Brésil et en Guyane[1],[3].
-Biotope
-Cyanophrys herodotus réside en forêt subtropicale et tropicale humide et en forêt tropicale sèche[3],[4].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyanophrys herodotus est présent dans le Sud du Texas, au Mexique, au Guatemala, au Panama, au Nicaragua, en Colombie, en Équateur, au Pérou, au Paraguay, en Argentine, au Brésil et en Guyane,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cyanophrys_herodotus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyanophrys_herodotus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyanophrys herodotus réside en forêt subtropicale et tropicale humide et en forêt tropicale sèche,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cyanophrys_herodotus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyanophrys_herodotus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Cyanophrys herodotus, sur Wikimedia CommonsCyanophrys herodotus, sur Wikispecies
 </t>
